--- a/Internet/basic_auth/basic_auth.xlsx
+++ b/Internet/basic_auth/basic_auth.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>Скриншот Test_ID_01</t>
-  </si>
-  <si>
     <t>Chrome Версия: 140.0.7339.129 (Официальная сборка) (64 бит)
 Windows 10</t>
   </si>
@@ -80,18 +77,12 @@
     <t>Добавить явное сообщение об ошибке для UX</t>
   </si>
   <si>
-    <t>Скриншот Test_ID_02</t>
-  </si>
-  <si>
     <t>Неверный пароль</t>
   </si>
   <si>
     <t>1. Открыть сайт. 
 2. Ввести логин "admin", пароль "test". 
 3. Нажать Enter.</t>
-  </si>
-  <si>
-    <t>Скриншот Test_ID_03</t>
   </si>
   <si>
     <t>Пустые поля</t>
@@ -102,18 +93,12 @@
 3. Нажать Enter.</t>
   </si>
   <si>
-    <t>Скриншот Test_ID_04</t>
-  </si>
-  <si>
     <t>Спец символы</t>
   </si>
   <si>
     <t>1. Открыть сайт. 
 2. Ввести логин "adm!n", пароль "admin". 
 3. Нажать Enter.</t>
-  </si>
-  <si>
-    <t>Скриншот Test_ID_05</t>
   </si>
   <si>
     <t>Ввод в логин 100 символов</t>
@@ -127,9 +112,6 @@
     <t>Проверить лимит на сервере</t>
   </si>
   <si>
-    <t>Скриншот Test_ID_06</t>
-  </si>
-  <si>
     <t>Выключение интернета во
 время регистрации</t>
   </si>
@@ -140,9 +122,6 @@
 4. Нажать Enter
 5. Включить интернет
 6. Обновить страницу</t>
-  </si>
-  <si>
-    <t>Скриншот Test_ID_07</t>
   </si>
   <si>
     <t>SQL-инъекция в логине</t>
@@ -160,9 +139,6 @@
     <t>Проверить на уязвимость</t>
   </si>
   <si>
-    <t>Скриншот Test_ID_08</t>
-  </si>
-  <si>
     <t>XSS в пароле</t>
   </si>
   <si>
@@ -173,9 +149,6 @@
   <si>
     <t>Появляется ошибка "Unauthorized" 
 (статус 401), без выполнения скрипта</t>
-  </si>
-  <si>
-    <t>Скриншот Test_ID_09</t>
   </si>
   <si>
     <t>Регрессионный тест после обновления страницы</t>
@@ -190,9 +163,6 @@
     <t>Проверка сесси</t>
   </si>
   <si>
-    <t>Скриншот Test_ID_10</t>
-  </si>
-  <si>
     <t>Ввод в пароль 100 символов</t>
   </si>
   <si>
@@ -203,9 +173,6 @@
   </si>
   <si>
     <t>Появляется ошибка "Unauthorized" (401)</t>
-  </si>
-  <si>
-    <t>Скриншот Test_ID_11</t>
   </si>
   <si>
     <t>Unicode-символы в логине
@@ -220,9 +187,6 @@
     <t>Проверить поддержку Unicode</t>
   </si>
   <si>
-    <t>Скриншот Test_ID_12</t>
-  </si>
-  <si>
     <t>Совместимость в Edge</t>
   </si>
   <si>
@@ -232,9 +196,6 @@
   </si>
   <si>
     <t>Проверка совместимости</t>
-  </si>
-  <si>
-    <t>Скриншот Test_ID_13</t>
   </si>
   <si>
     <t>Edge Версия 140.0.3485.81
@@ -249,9 +210,6 @@
     <t>1. Успешно авторизоваться (как в ID1). 
 2. Скопировать URL. 
 3. Открыть в новой вкладке.</t>
-  </si>
-  <si>
-    <t>Скриншот Test_ID_14</t>
   </si>
 </sst>
 </file>
@@ -699,7 +657,400 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5238750" cy="1781175"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5105400" cy="2114550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image9.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4886325" cy="1885950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5114925" cy="1962150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5238750" cy="1971675"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5238750" cy="2047875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4105275" cy="1819275"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4305300" cy="1666875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5238750" cy="2028825"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image10.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5238750" cy="1162050"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image11.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1971675" cy="1533525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1924050" cy="1504950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image12.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1885950" cy="1400175"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image13.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3790950" cy="1562100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image14.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -933,7 +1284,7 @@
     <col customWidth="1" min="5" max="5" width="73.63"/>
     <col customWidth="1" min="6" max="6" width="14.63"/>
     <col customWidth="1" min="7" max="7" width="26.75"/>
-    <col customWidth="1" min="8" max="8" width="22.0"/>
+    <col customWidth="1" min="8" max="8" width="68.75"/>
     <col customWidth="1" min="9" max="9" width="37.63"/>
   </cols>
   <sheetData>
@@ -984,7 +1335,7 @@
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
     </row>
-    <row r="2">
+    <row r="2" ht="147.0" customHeight="1">
       <c r="A2" s="8">
         <v>1.0</v>
       </c>
@@ -1004,11 +1355,9 @@
         <v>12</v>
       </c>
       <c r="G2" s="12"/>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -1029,33 +1378,31 @@
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3">
+    <row r="3" ht="166.5" customHeight="1">
       <c r="A3" s="15">
         <v>2.0</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>20</v>
-      </c>
+      <c r="H3" s="19"/>
       <c r="I3" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -1076,33 +1423,31 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4">
+    <row r="4" ht="149.25" customHeight="1">
       <c r="A4" s="8">
         <v>3.0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="H4" s="13"/>
       <c r="I4" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1123,33 +1468,31 @@
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" ht="154.5" customHeight="1">
       <c r="A5" s="15">
         <v>4.0</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="H5" s="19"/>
       <c r="I5" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -1170,31 +1513,29 @@
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6">
+    <row r="6" ht="171.0" customHeight="1">
       <c r="A6" s="8">
         <v>5.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="21"/>
-      <c r="H6" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -1215,33 +1556,31 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
     </row>
-    <row r="7">
+    <row r="7" ht="162.0" customHeight="1">
       <c r="A7" s="22">
         <v>6.0</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="H7" s="19"/>
       <c r="I7" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -1262,15 +1601,15 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
     </row>
-    <row r="8">
+    <row r="8" ht="143.25" customHeight="1">
       <c r="A8" s="23">
         <v>7.0</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>11</v>
@@ -1282,11 +1621,9 @@
         <v>12</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="H8" s="13"/>
       <c r="I8" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1307,33 +1644,31 @@
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
     </row>
-    <row r="9">
+    <row r="9" ht="131.25" customHeight="1">
       <c r="A9" s="22">
         <v>8.0</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="H9" s="19"/>
       <c r="I9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1354,33 +1689,31 @@
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
     </row>
-    <row r="10">
+    <row r="10" ht="168.75" customHeight="1">
       <c r="A10" s="24">
         <v>9.0</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="H10" s="13"/>
       <c r="I10" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1401,15 +1734,15 @@
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
     </row>
-    <row r="11">
+    <row r="11" ht="123.0" customHeight="1">
       <c r="A11" s="26">
         <v>10.0</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>11</v>
@@ -1421,13 +1754,11 @@
         <v>12</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
-      <c r="H11" s="27" t="s">
-        <v>49</v>
-      </c>
+      <c r="H11" s="27"/>
       <c r="I11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -1448,33 +1779,31 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
     </row>
-    <row r="12">
+    <row r="12" ht="120.75" customHeight="1">
       <c r="A12" s="24">
         <v>11.0</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
-      <c r="H12" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="H12" s="30"/>
       <c r="I12" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1495,33 +1824,31 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
     </row>
-    <row r="13">
+    <row r="13" ht="118.5" customHeight="1">
       <c r="A13" s="26">
         <v>12.0</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>57</v>
-      </c>
+      <c r="H13" s="27"/>
       <c r="I13" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1542,15 +1869,15 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" ht="110.25" customHeight="1">
       <c r="A14" s="24">
         <v>13.0</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>11</v>
@@ -1562,13 +1889,11 @@
         <v>12</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
-      <c r="H14" s="30" t="s">
-        <v>61</v>
-      </c>
+      <c r="H14" s="30"/>
       <c r="I14" s="33" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1589,15 +1914,15 @@
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" ht="123.0" customHeight="1">
       <c r="A15" s="34">
         <v>14.0</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>11</v>
@@ -1609,13 +1934,11 @@
         <v>12</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
-      <c r="H15" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="H15" s="38"/>
       <c r="I15" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
